--- a/Pagina.xlsx
+++ b/Pagina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franco B\Restos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBB6972-C02E-48FB-BA7A-ECDA2073A22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252CBBD6-2B86-434F-BC72-753890CB34FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>hamburguesas</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>stock globa 50 max</t>
+  </si>
+  <si>
+    <t>bacoon extra max 4</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="B1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +444,9 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
